--- a/test_run/test_SAAN.xlsx
+++ b/test_run/test_SAAN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanju\Desktop\Tatum‘s Group\SAAN_Digitization\test_run\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68826CC7-FCDA-4A4A-B209-8A2F183FB39D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDA930A-7094-436A-AA85-7E1452670020}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{3BA77F9E-1FE7-4BD1-845D-5D0E84AB66B9}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{3BA77F9E-1FE7-4BD1-845D-5D0E84AB66B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -502,7 +502,7 @@
   <dimension ref="A1:I92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
